--- a/file/timeline_proposal.xlsx
+++ b/file/timeline_proposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiming/Desktop/R_learning_yiming/P8105_DATA_SCIENCE/hot_coffee/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leung\Documents\GitHub\hot_coffee\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA38469-0F86-314D-999F-9C60F65770FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49EFF4D-249C-4345-8698-ECEBFC007A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{AF71768B-674A-BE46-911C-64C389CB46DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF71768B-674A-BE46-911C-64C389CB46DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>12/3-12/5</t>
+  </si>
+  <si>
+    <t>11/4/2020</t>
   </si>
 </sst>
 </file>
@@ -156,13 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -178,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,18 +479,18 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.875" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -498,16 +500,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>44139</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -517,15 +519,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,56 +535,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
@@ -592,8 +594,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">

--- a/file/timeline_proposal.xlsx
+++ b/file/timeline_proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiming/Desktop/R_learning_yiming/P8105_DATA_SCIENCE/hot_coffee/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA38469-0F86-314D-999F-9C60F65770FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5734D-C037-2343-94BA-6FE85E947401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{AF71768B-674A-BE46-911C-64C389CB46DC}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>11/5-11/7</t>
   </si>
   <si>
-    <t>11/7-11/8/</t>
-  </si>
-  <si>
     <t>11/9-11/10</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>12/3-12/5</t>
+  </si>
+  <si>
+    <t>11/7-11/8</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,93 +514,93 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
